--- a/411 Project/nocLock/Documentaion/System Design/Description Table.xlsx
+++ b/411 Project/nocLock/Documentaion/System Design/Description Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Input Name</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>nocLock</t>
+  </si>
+  <si>
+    <t>Level 0:</t>
+  </si>
+  <si>
+    <t>Level 1:</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,10 +192,77 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -203,13 +276,11 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -233,26 +304,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -264,6 +351,8 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -275,6 +364,8 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -621,171 +712,179 @@
     <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="16" thickBot="1">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31" thickBot="1">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:6" ht="60">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:6" ht="60">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="75">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="75">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="105">
+      <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:6" ht="90">
+      <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="91" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:6" ht="91" thickBot="1">
+      <c r="A9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
-      <c r="A9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="10" spans="1:6" ht="31" thickBot="1">
+      <c r="A10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:6" ht="75">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:6" ht="75">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/411 Project/nocLock/Documentaion/System Design/Description Table.xlsx
+++ b/411 Project/nocLock/Documentaion/System Design/Description Table.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12800" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Level 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Level 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Level 0-1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
   <si>
     <t>Input Name</t>
   </si>
@@ -81,9 +83,6 @@
     <t>A standard 9V battery can be used as a backup in case of power outage.</t>
   </si>
   <si>
-    <t>In normal operation, the nocLock uses either a 9VDC AC adapter with a current rating of at lease 1500mA.</t>
-  </si>
-  <si>
     <t>Button 1 will indicate that the user intends to enter a sequence of knocks. It is also used by the user to tell end a knock sequence.</t>
   </si>
   <si>
@@ -111,17 +110,110 @@
     <t>nocLock</t>
   </si>
   <si>
-    <t>Level 0:</t>
-  </si>
-  <si>
-    <t>Level 1:</t>
+    <t>In normal operation, the nocLock uses either a 9VDC AC adapter with a current rating of at least 1500mA.</t>
+  </si>
+  <si>
+    <t>Button Debounce</t>
+  </si>
+  <si>
+    <t>Internal Power Supply</t>
+  </si>
+  <si>
+    <t>Sensor input</t>
+  </si>
+  <si>
+    <t>uC and programmer</t>
+  </si>
+  <si>
+    <t>LED Driver</t>
+  </si>
+  <si>
+    <t>Unlock Sender</t>
+  </si>
+  <si>
+    <t>Inputs:</t>
+  </si>
+  <si>
+    <t>Outputs:</t>
+  </si>
+  <si>
+    <t>Noisy or unregulated supply voltage.</t>
+  </si>
+  <si>
+    <t>Source Selection</t>
+  </si>
+  <si>
+    <t>LED Driver n</t>
+  </si>
+  <si>
+    <t>Sensor Input</t>
+  </si>
+  <si>
+    <t>Unregulated +9VDC</t>
+  </si>
+  <si>
+    <t>Small LED Signal</t>
+  </si>
+  <si>
+    <t>Clean +5VDC</t>
+  </si>
+  <si>
+    <t>Small Unlock Signal</t>
+  </si>
+  <si>
+    <t>Unregulated 9VDC</t>
+  </si>
+  <si>
+    <t>Button n</t>
+  </si>
+  <si>
+    <t>Clean button press 1</t>
+  </si>
+  <si>
+    <t>Clean button press 2</t>
+  </si>
+  <si>
+    <t>Clean button press 3</t>
+  </si>
+  <si>
+    <t>JTAG</t>
+  </si>
+  <si>
+    <t>Clipped Knock Sense</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>LED n (large current)</t>
+  </si>
+  <si>
+    <t>Unlock Signal (large current)</t>
+  </si>
+  <si>
+    <t>Clean button press</t>
+  </si>
+  <si>
+    <t>Small LED signal 1</t>
+  </si>
+  <si>
+    <t>Small LED signal 2</t>
+  </si>
+  <si>
+    <t>Small unlock signal</t>
+  </si>
+  <si>
+    <t>Level 0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +250,34 @@
       <name val="Cambria"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +287,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -255,32 +375,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -308,14 +404,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -329,17 +440,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -353,6 +471,14 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -366,6 +492,14 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -706,186 +840,393 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="47.5" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="28">
+      <c r="A1" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19" thickBot="1">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="75">
+      <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C3" s="13"/>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="31" thickBot="1">
-      <c r="A2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="60">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="60">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="105">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="90">
-      <c r="A8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="91" thickBot="1">
-      <c r="A9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="31" thickBot="1">
-      <c r="A10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="75">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="75">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
+      <c r="C9" s="13"/>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="E39" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -897,4 +1238,324 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29" thickBot="1">
+      <c r="A1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31" thickBot="1">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="11"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="11"/>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="11"/>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11"/>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11"/>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11"/>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="11"/>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/411 Project/nocLock/Documentaion/System Design/Description Table.xlsx
+++ b/411 Project/nocLock/Documentaion/System Design/Description Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Level 0" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="91">
   <si>
     <t>Input Name</t>
   </si>
@@ -125,9 +125,6 @@
     <t>uC and programmer</t>
   </si>
   <si>
-    <t>LED Driver</t>
-  </si>
-  <si>
     <t>Unlock Sender</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Outputs:</t>
   </si>
   <si>
-    <t>Noisy or unregulated supply voltage.</t>
-  </si>
-  <si>
     <t>Source Selection</t>
   </si>
   <si>
@@ -207,6 +201,99 @@
   </si>
   <si>
     <t>Level 0</t>
+  </si>
+  <si>
+    <t>Button Debounce n</t>
+  </si>
+  <si>
+    <t>Button debounce will be responsible fore removing and "mechanical jitter" or bounces to occur. This assures that the microcontroller see only one state change over the duration of the button press. There is only a single wire output, referenced to ground. There will be a total of 3 button debounce systems, one per button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The internal power supply is used to step down the supply voltage and remove any line transients. It will need to be capabple of providing power to the microcontroller and up to 2 LEDs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depending on the sensor, the sensor input will be used to protect the microcontroller from any harmful voltage levels. It will be responsible for either level shifting a digital signal, or amplifying/clipping and analog signal. It will have a single wire output to the microcontroller. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The microcontroller and programmer system will be responsible for interperiting all the button presses, knocks and also for changing the state of the LEDs and the unlock sender. </t>
+  </si>
+  <si>
+    <t>The LED driving system will be responsible for taking the small amount of current from the microcontroller and turning it into a larger current from the power source, that is capable of illuminating an LED. There is a single wire output that connects to an LED.</t>
+  </si>
+  <si>
+    <t>The unlock sending system is similar to the LED Driving stage. However it needs to be capable of driving much more current to a device that locks and unlocks the box.</t>
+  </si>
+  <si>
+    <t>The source selection system is capable of automatically switching between either wall wart power supply or the 9V batter. The output is a single wire to the Unlock sener and the internal power supply.</t>
+  </si>
+  <si>
+    <t>Output is a single unregulated 9VDC source. It is one wire that is referenced to ground.</t>
+  </si>
+  <si>
+    <t>Input can be any standard 9V batterey. It is a single wire, referenced to ground.</t>
+  </si>
+  <si>
+    <t>Input can be any 9VDC AC adapter, capable of supplying atleast 1500mA. It is a single wire referenced to ground.</t>
+  </si>
+  <si>
+    <t>This input is the single wire output of the Source Selection system.</t>
+  </si>
+  <si>
+    <t>This input is an output of the microcontroller, and is expected to be a small current.</t>
+  </si>
+  <si>
+    <t>This input will be connected to the output when the other input is asserted.</t>
+  </si>
+  <si>
+    <t>The output is a clean, regulated voltage that is safe for the microcontroller to use. Its is a single wire, referenced to ground.</t>
+  </si>
+  <si>
+    <t>This output will be a larger signal that is capable of illuminating an LED. It is a single wire, referenced to ground.</t>
+  </si>
+  <si>
+    <t>This input will take the larger main power supply and apply it to a device that unlocks the box. It si one wire, referenced to ground.</t>
+  </si>
+  <si>
+    <t>Similar to small LED Signal above.</t>
+  </si>
+  <si>
+    <t>The output will drive a unlockign device. It will most likely be some inductive load, needing a relatively large amount of current.</t>
+  </si>
+  <si>
+    <t>This input is the raw sensor voltage. It is assumed that this signal will have large voltage spikes that can harm the microcontroller. It is one wire, referenced to ground.</t>
+  </si>
+  <si>
+    <t>The output is a voltage level that has a maximum value that is less than that which can harm the microcontroller I/O pins. It is one wire, referenced to ground.</t>
+  </si>
+  <si>
+    <t>The input is a rising or falling edge that can be followed by many more of the same. This can be confusing to the microcontroller and may cause unpredictable behavior. It is one wire, referenced to ground.</t>
+  </si>
+  <si>
+    <t>A single clean rising or falling edge so that the microcontroller can act in a predictable way.</t>
+  </si>
+  <si>
+    <t>This is the power supply to the microcontroller. It is the output of the internal power supply.</t>
+  </si>
+  <si>
+    <t>The output of a button debounce stage. It is either a rising or falling edge that indicates a button press.</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t>6 lines total, 4 of those are MOSI,MISO,SCK and Reset. The remaining 2 are VCC and GND. This is used to send program data to the Microcontroller.</t>
+  </si>
+  <si>
+    <t>A safe voltage level that indicate the presence or abcense of a knock.</t>
+  </si>
+  <si>
+    <t>A small signal indicating that the locking mechanism should be engaged or disengagued.</t>
+  </si>
+  <si>
+    <t>A small signal asserting the voltage level of and LED.</t>
+  </si>
+  <si>
+    <t>See Above</t>
   </si>
 </sst>
 </file>
@@ -376,8 +463,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -457,7 +556,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -479,6 +578,12 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -500,6 +605,12 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -831,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -850,15 +961,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="28">
       <c r="A1" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19" thickBot="1">
       <c r="A2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31" thickBot="1">
@@ -1035,199 +1146,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="12" t="s">
+    <row r="1" spans="1:3" ht="16" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="135">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="105">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" ht="75">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" thickBot="1">
-      <c r="A2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B8" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="C10" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    <row r="10" spans="1:3">
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:3">
       <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:3">
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:3">
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:3">
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
+    <row r="16" spans="1:3">
       <c r="C16" s="13"/>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" s="13"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="3:3">
       <c r="C18" s="13"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="3:3">
       <c r="C19" s="13"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="3:3">
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="3:3">
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="3:3">
       <c r="C22" s="13"/>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
+    <row r="23" spans="3:3">
       <c r="C23" s="13"/>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="3:3">
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="3:3">
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="3:3">
       <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="3:3">
       <c r="C28" s="13"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="3:3">
       <c r="C29" s="13"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="3:3">
       <c r="C30" s="13"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="3:3">
       <c r="C31" s="13"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="3:3">
       <c r="C32" s="13"/>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
+    <row r="33" spans="3:3">
       <c r="C33" s="13"/>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" s="13"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="3:3">
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="3:3">
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="3:3">
       <c r="C37" s="13"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="3:3">
       <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1245,7 +1328,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1263,10 +1346,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29" thickBot="1">
       <c r="A1" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31" thickBot="1">
@@ -1297,14 +1380,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
-        <v>39</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D3" s="13"/>
       <c r="E3" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="45">
       <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>5</v>
@@ -1312,15 +1397,21 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E4" s="11"/>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>6</v>
@@ -1328,109 +1419,147 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="E5" s="11"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="75">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
+      <c r="D7" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="E7" s="11"/>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
+      <c r="H7" s="13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>40</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="75">
       <c r="A9" s="11"/>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45">
       <c r="A10" s="11"/>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="E10" s="11"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="75">
       <c r="A12" s="11"/>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="75">
       <c r="A13" s="11"/>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
+      <c r="D13" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="E13" s="11"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="11" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="90">
       <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>10</v>
@@ -1438,114 +1567,157 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
+      <c r="D15" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="D16" s="13"/>
       <c r="E16" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="105">
       <c r="A17" s="11"/>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="D18" s="13"/>
       <c r="E18" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="45">
       <c r="A19" s="11"/>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
+      <c r="D19" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="E19" s="11"/>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60">
       <c r="A20" s="11"/>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45">
       <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75">
+      <c r="B23" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" t="s">
-        <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="D23" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45">
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
